--- a/dataset/day_10.xlsx
+++ b/dataset/day_10.xlsx
@@ -883,7 +883,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -11103,7 +11103,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -16127,7 +16127,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -23563,7 +23563,7 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
@@ -23695,7 +23695,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -26827,7 +26827,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -28079,7 +28079,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -31623,7 +31623,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -34367,7 +34367,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -35899,7 +35899,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -37871,7 +37871,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down); G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#1; #3</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -41323,7 +41323,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -42775,7 +42775,7 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
@@ -45507,7 +45507,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -48079,7 +48079,7 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -49771,7 +49771,7 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
@@ -52195,7 +52195,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -54807,7 +54807,7 @@
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1351" t="inlineStr">
@@ -56979,7 +56979,7 @@
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1405" t="inlineStr">
@@ -69311,7 +69311,7 @@
       </c>
       <c r="H1713" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1713" t="inlineStr">
@@ -72963,7 +72963,7 @@
       </c>
       <c r="H1804" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1804" t="inlineStr">
@@ -75695,7 +75695,7 @@
       </c>
       <c r="H1872" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1872" t="inlineStr">
